--- a/assert/templates/public0.xlsx
+++ b/assert/templates/public0.xlsx
@@ -176,28 +176,32 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -273,48 +277,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>11520</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>61560</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>650160</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>327240</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="图片 1" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="364680" y="223560"/>
-          <a:ext cx="1451520" cy="589320"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -323,7 +285,7 @@
   <dimension ref="B4:J1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -348,6 +310,7 @@
       <c r="G6" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="4" t="s">
@@ -391,6 +354,86 @@
         <v>11</v>
       </c>
     </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J9" s="6"/>
+    </row>
+    <row r="1048498" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048499" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048500" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048501" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048502" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048503" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048504" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048505" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048506" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048507" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048508" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048509" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048510" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048511" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048512" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048513" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048514" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048515" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048516" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048517" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048518" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048519" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048520" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048521" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048522" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048523" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048524" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048525" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048526" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048527" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048528" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048529" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048530" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048531" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048532" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048533" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048534" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048535" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048536" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048537" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048538" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048539" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -404,6 +447,5 @@
     <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12 Page &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/assert/templates/public0.xlsx
+++ b/assert/templates/public0.xlsx
@@ -22,7 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
-    <t xml:space="preserve">宜昌所公共资产明细统计表</t>
+    <t xml:space="preserve">公共资产明细统计表</t>
   </si>
   <si>
     <t xml:space="preserve">资产管理员：</t>
@@ -181,27 +181,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -277,6 +277,48 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>20880</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>104760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>603720</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>342000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="图像 1" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1186920" y="266760"/>
+          <a:ext cx="582840" cy="560880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -284,8 +326,8 @@
   </sheetPr>
   <dimension ref="B4:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B9:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -447,5 +489,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12 Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/assert/templates/public0.xlsx
+++ b/assert/templates/public0.xlsx
@@ -288,9 +288,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>603720</xdr:colOff>
+      <xdr:colOff>603360</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>342000</xdr:rowOff>
+      <xdr:rowOff>341640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -304,7 +304,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1186920" y="266760"/>
-          <a:ext cx="582840" cy="560880"/>
+          <a:ext cx="582480" cy="560520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -327,7 +327,7 @@
   <dimension ref="B4:J1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B9:B18"/>
+      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -352,7 +352,7 @@
       <c r="G6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="1"/>
+      <c r="H6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="4" t="s">
